--- a/Data/052018/nhanvien.xlsx
+++ b/Data/052018/nhanvien.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50604D00-1ADA-4ABA-881E-DB3EA96905D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A42C4EE5-6265-4B00-A023-14C856D2AE30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,13 +411,13 @@
         <v>3000</v>
       </c>
       <c r="C2">
-        <v>0.11</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>0.23</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -425,13 +428,13 @@
         <v>3000</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -442,13 +445,13 @@
         <v>4900</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -459,13 +462,13 @@
         <v>3000</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,13 +479,13 @@
         <v>3000</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/Data/052018/nhanvien.xlsx
+++ b/Data/052018/nhanvien.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A42C4EE5-6265-4B00-A023-14C856D2AE30}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48FD86DE-7E55-4E23-AC7D-416EC93CEC6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Hai</t>
   </si>
@@ -37,16 +37,37 @@
     <t>Duc</t>
   </si>
   <si>
-    <t>Nang suat co ban</t>
-  </si>
-  <si>
     <t>Luong co ban</t>
   </si>
   <si>
-    <t>Nang suat muc 1</t>
-  </si>
-  <si>
-    <t>Nang suat muc 2</t>
+    <t>Ti le</t>
+  </si>
+  <si>
+    <t>Bat cap</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Chi Thuy</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Huong</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Cuc</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -373,13 +394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,23 +408,45 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D1" s="1">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -414,13 +457,28 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E2">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -431,13 +489,28 @@
         <v>0.01</v>
       </c>
       <c r="D3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,8 +526,23 @@
       <c r="E4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+      <c r="J4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -465,13 +553,34 @@
         <v>0.01</v>
       </c>
       <c r="D5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -482,10 +591,73 @@
         <v>0.01</v>
       </c>
       <c r="D6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J6">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/052018/nhanvien.xlsx
+++ b/Data/052018/nhanvien.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{48FD86DE-7E55-4E23-AC7D-416EC93CEC6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F788C2CD-E5E9-480A-9C44-542227BA63F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Hai</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Cuc</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
 </sst>
 </file>
@@ -394,59 +391,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <v>12.5</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>20</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>25</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>30</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>35</v>
       </c>
-      <c r="H1" s="1">
-        <v>42.5</v>
-      </c>
       <c r="I1" s="1">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,13 +474,19 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K2">
         <v>0.02</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -504,13 +512,19 @@
         <v>1.6E-2</v>
       </c>
       <c r="I3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K3">
         <v>1.9E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -541,8 +555,14 @@
       <c r="J4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+      <c r="L4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -568,19 +588,25 @@
         <v>1.6E-2</v>
       </c>
       <c r="I5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K5">
         <v>1.9E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.02</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.7</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -606,13 +632,19 @@
         <v>1.6E-2</v>
       </c>
       <c r="I6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K6">
         <v>1.9E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -620,7 +652,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -628,7 +660,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -636,7 +668,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -644,7 +676,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -652,7 +684,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>

--- a/Data/052018/nhanvien.xlsx
+++ b/Data/052018/nhanvien.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F788C2CD-E5E9-480A-9C44-542227BA63F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7109D43D-6F35-4566-B4D9-6B2AB7891937}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,23 +391,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -421,80 +420,62 @@
         <v>20</v>
       </c>
       <c r="F1" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1">
-        <v>50</v>
-      </c>
-      <c r="L1" s="1">
-        <v>55</v>
-      </c>
-      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4900</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.01</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="K2">
-        <v>0.02</v>
-      </c>
-      <c r="L2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
       </c>
       <c r="B3">
         <v>3000</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D3">
         <v>1.2E-2</v>
@@ -514,55 +495,37 @@
       <c r="I3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K3">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4900</v>
+        <v>3000</v>
       </c>
       <c r="C4">
         <v>0.01</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
-      </c>
-      <c r="J4">
-        <v>0.01</v>
-      </c>
-      <c r="K4">
-        <v>0.01</v>
-      </c>
-      <c r="L4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -573,40 +536,31 @@
         <v>0.01</v>
       </c>
       <c r="D5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E5">
         <v>1.2E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.4E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.6E-2</v>
       </c>
-      <c r="I5">
-        <v>1.7000000000000001E-2</v>
-      </c>
       <c r="J5">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K5">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.02</v>
-      </c>
-      <c r="M5">
         <v>0.7</v>
       </c>
-      <c r="N5" t="s">
+      <c r="K5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -617,34 +571,25 @@
         <v>0.01</v>
       </c>
       <c r="D6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E6">
         <v>1.2E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.4E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.6E-2</v>
       </c>
-      <c r="I6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K6">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -652,7 +597,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -660,7 +605,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -668,7 +613,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -676,7 +621,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -684,7 +629,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>

--- a/Data/052018/nhanvien.xlsx
+++ b/Data/052018/nhanvien.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7109D43D-6F35-4566-B4D9-6B2AB7891937}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62FB1B87-796D-4543-9015-131B25F95876}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
